--- a/data-raw/FAKE_Verlustscheine.xlsx
+++ b/data-raw/FAKE_Verlustscheine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flhug/Dropbox (PP)/H4Sci_RPackage/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kschuepbach\GitHub\pseudonymizer\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0010EA7-0860-784A-960B-E1B76E03E1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD94DBCB-B2BF-470A-B332-5101CF83C3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="740" windowWidth="28240" windowHeight="18380" activeTab="3" xr2:uid="{06FE1DC0-AE8C-954E-A145-BE942E50B29D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{06FE1DC0-AE8C-954E-A145-BE942E50B29D}"/>
   </bookViews>
   <sheets>
     <sheet name="Schlussabrechnung" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="82">
   <si>
     <t>SCHULDNER</t>
   </si>
@@ -493,9 +493,6 @@
     <t>01.01.1980</t>
   </si>
   <si>
-    <t>756.0000.0000.01</t>
-  </si>
-  <si>
     <t>756.0000.0000.12</t>
   </si>
   <si>
@@ -521,6 +518,9 @@
   </si>
   <si>
     <t>Nicht-Sedex</t>
+  </si>
+  <si>
+    <t>756.0000.0000.15</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1285,9 +1285,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1393,6 +1390,85 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,48 +1547,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1533,36 +1567,82 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1577,85 +1657,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2048,60 +2050,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D137E966-D99D-0145-82CD-AC8748F4B058}">
-  <dimension ref="A1:AM8"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ4" sqref="AJ4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.83203125" style="19"/>
-    <col min="32" max="34" width="10.83203125" style="19"/>
+    <col min="1" max="1" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.8984375" style="18"/>
+    <col min="32" max="34" width="10.8984375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="53" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="82" t="s">
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="85" t="s">
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86" t="s">
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="86"/>
+      <c r="AB1" s="96"/>
       <c r="AC1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2120,89 +2122,89 @@
       <c r="AH1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AI1" s="63" t="s">
+      <c r="AI1" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AJ1" s="65" t="s">
+      <c r="AJ1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="AK1" s="68" t="s">
+      <c r="AK1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="70"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="91"/>
     </row>
-    <row r="2" spans="1:39" ht="27" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:39" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="K2" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="N2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="89" t="s">
+      <c r="Q2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="93" t="s">
+      <c r="R2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="91" t="s">
+      <c r="S2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="T2" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="U2" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="57" t="s">
+      <c r="V2" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="59" t="s">
+      <c r="W2" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="61" t="s">
+      <c r="X2" s="82" t="s">
         <v>32</v>
       </c>
       <c r="Y2" s="5" t="s">
@@ -2235,45 +2237,45 @@
       <c r="AH2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="51" t="s">
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="51" t="s">
+      <c r="AL2" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="51" t="s">
+      <c r="AM2" s="72" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
+    <row r="3" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="69"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
       <c r="P3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="62"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="83"/>
       <c r="Y3" s="11" t="s">
         <v>41</v>
       </c>
@@ -2288,23 +2290,23 @@
       </c>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
-      <c r="AE3" s="53" t="s">
+      <c r="AE3" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="53" t="s">
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="88"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -2333,7 +2335,7 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="P4" s="50"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
@@ -2344,19 +2346,19 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
-      <c r="AG4" s="19">
+      <c r="AG4" s="18">
         <v>100</v>
       </c>
-      <c r="AH4" s="19">
+      <c r="AH4" s="18">
         <v>60</v>
       </c>
       <c r="AJ4" s="13">
         <v>660</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2386,7 +2388,7 @@
         <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
         <v>46</v>
@@ -2400,11 +2402,11 @@
       <c r="O5" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="51" t="s">
         <v>71</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S5">
         <v>1111</v>
@@ -2424,19 +2426,19 @@
       <c r="X5" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Z5" s="16" t="s">
+      <c r="Z5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AC5" s="19">
+      <c r="AC5" s="18">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2466,7 +2468,7 @@
         <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
         <v>46</v>
@@ -2480,11 +2482,11 @@
       <c r="O6" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="51" t="s">
         <v>71</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S6">
         <v>1111</v>
@@ -2492,10 +2494,10 @@
       <c r="T6">
         <v>2222</v>
       </c>
-      <c r="U6" s="17">
+      <c r="U6" s="16">
         <v>40179</v>
       </c>
-      <c r="V6" s="18" t="s">
+      <c r="V6" s="17" t="s">
         <v>48</v>
       </c>
       <c r="W6">
@@ -2504,17 +2506,17 @@
       <c r="X6" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" s="16" t="s">
+      <c r="Y6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Z6" s="16" t="s">
+      <c r="Z6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AC6" s="19">
+      <c r="AC6" s="18">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="I7" t="s">
         <v>44</v>
       </c>
@@ -2522,7 +2524,7 @@
         <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
         <v>46</v>
@@ -2536,25 +2538,25 @@
       <c r="O7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="14">
-        <v>43921</v>
+      <c r="P7" s="51" t="s">
+        <v>50</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>46</v>
@@ -2574,7 +2576,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="P8" s="50"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -2585,38 +2587,21 @@
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
-      <c r="AG8" s="19">
+      <c r="AG8" s="18">
         <v>100</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="AH8" s="18">
         <v>60</v>
       </c>
       <c r="AJ8" s="13">
         <v>660</v>
       </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="P9" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AE3:AF3"/>
@@ -2633,6 +2618,26 @@
     <mergeCell ref="S1:X1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2647,738 +2652,738 @@
       <selection activeCell="G19" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="23"/>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="22"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="23"/>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="22"/>
     </row>
-    <row r="3" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+    <row r="3" spans="1:38" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="23"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="120"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="120"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="120"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="22"/>
     </row>
-    <row r="4" spans="1:38" s="26" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="97" t="s">
+    <row r="4" spans="1:38" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
     </row>
-    <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="23"/>
+    <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="22"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="99" t="s">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A7" s="99" t="s">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="23"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="23"/>
-      <c r="AK8" s="23"/>
-      <c r="AL8" s="23"/>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="99" t="s">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="23"/>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="23"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="99" t="s">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="23"/>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="23"/>
-      <c r="AL10" s="23"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="23"/>
-      <c r="AL11" s="23"/>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
     </row>
-    <row r="12" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="99" t="s">
+    <row r="12" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="23"/>
-      <c r="AK12" s="23"/>
-      <c r="AL12" s="23"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A13" s="99" t="s">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23"/>
-      <c r="AJ13" s="23"/>
-      <c r="AK13" s="23"/>
-      <c r="AL13" s="23"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="23"/>
-      <c r="AL14" s="23"/>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A15" s="99" t="s">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="112"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="23"/>
-      <c r="AL15" s="23"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
     </row>
-    <row r="16" spans="1:38" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
+    <row r="16" spans="1:38" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:38" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:38" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="113" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="W17" s="114"/>
-      <c r="X17" s="114"/>
-      <c r="Y17" s="114"/>
-      <c r="Z17" s="114"/>
-      <c r="AA17" s="114"/>
-      <c r="AB17" s="114"/>
-      <c r="AC17" s="114"/>
-      <c r="AD17" s="114"/>
-      <c r="AE17" s="114"/>
-      <c r="AF17" s="114"/>
-      <c r="AG17" s="115"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="23"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="111"/>
+      <c r="AA17" s="111"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="111"/>
+      <c r="AD17" s="111"/>
+      <c r="AE17" s="111"/>
+      <c r="AF17" s="111"/>
+      <c r="AG17" s="112"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="40"/>
+      <c r="AL17" s="22"/>
     </row>
-    <row r="18" spans="1:38" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
+    <row r="18" spans="1:38" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="81" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="117" t="s">
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="117"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="85" t="s">
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86" t="s">
+      <c r="W18" s="96"/>
+      <c r="X18" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="Y18" s="86"/>
+      <c r="Y18" s="96"/>
       <c r="Z18" s="2" t="s">
         <v>5</v>
       </c>
@@ -3397,87 +3402,87 @@
       <c r="AE18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AF18" s="63" t="s">
+      <c r="AF18" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AG18" s="65" t="s">
+      <c r="AG18" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="AH18" s="42" t="s">
+      <c r="AH18" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="AI18" s="42" t="s">
+      <c r="AI18" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="AJ18" s="43" t="s">
+      <c r="AJ18" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="AK18" s="44" t="s">
+      <c r="AK18" s="43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+    <row r="19" spans="1:38" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="77" t="s">
+      <c r="G19" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="87" t="s">
+      <c r="H19" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="75" t="s">
+      <c r="I19" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="75" t="s">
+      <c r="J19" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="75" t="s">
+      <c r="K19" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="75" t="s">
+      <c r="L19" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="75" t="s">
+      <c r="M19" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="75" t="s">
+      <c r="N19" s="55" t="s">
         <v>21</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P19" s="75" t="s">
+      <c r="P19" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="Q19" s="118" t="s">
+      <c r="Q19" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="91" t="s">
+      <c r="R19" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="S19" s="55" t="s">
+      <c r="S19" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="T19" s="55" t="s">
+      <c r="T19" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="U19" s="120" t="s">
+      <c r="U19" s="99" t="s">
         <v>31</v>
       </c>
       <c r="V19" s="5" t="s">
@@ -3510,43 +3515,43 @@
       <c r="AE19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AF19" s="64"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="65" t="s">
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="87"/>
+      <c r="AH19" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="AI19" s="45" t="s">
+      <c r="AI19" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="47" t="s">
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="231" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
+    <row r="20" spans="1:38" ht="231" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="67"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
       <c r="O20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="121"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="100"/>
       <c r="V20" s="11" t="s">
         <v>41</v>
       </c>
@@ -3561,41 +3566,44 @@
       </c>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
-      <c r="AB20" s="53" t="s">
+      <c r="AB20" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="53" t="s">
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="49" t="s">
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="88"/>
+      <c r="AH20" s="88"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AK20" s="50" t="s">
+      <c r="AK20" s="49" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A3:AD3"/>
+    <mergeCell ref="A4:AD4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="V17:AG17"/>
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="AF18:AF20"/>
     <mergeCell ref="AG18:AG20"/>
@@ -3612,23 +3620,20 @@
     <mergeCell ref="R18:U18"/>
     <mergeCell ref="V18:W18"/>
     <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="V17:AG17"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A3:AD3"/>
-    <mergeCell ref="A4:AD4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3636,60 +3641,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDF78BB-C4B9-3047-8E29-23A870CACE9B}">
-  <dimension ref="A1:AM8"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.83203125" style="19"/>
-    <col min="32" max="34" width="10.83203125" style="19"/>
+    <col min="1" max="1" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.8984375" style="18"/>
+    <col min="32" max="34" width="10.8984375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="53" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="82" t="s">
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="85" t="s">
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86" t="s">
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="86"/>
+      <c r="AB1" s="96"/>
       <c r="AC1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3708,89 +3713,89 @@
       <c r="AH1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AI1" s="63" t="s">
+      <c r="AI1" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AJ1" s="65" t="s">
+      <c r="AJ1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="AK1" s="68" t="s">
+      <c r="AK1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="70"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="91"/>
     </row>
-    <row r="2" spans="1:39" ht="27" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:39" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="K2" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="N2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="89" t="s">
+      <c r="Q2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="93" t="s">
+      <c r="R2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="91" t="s">
+      <c r="S2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="T2" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="U2" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="57" t="s">
+      <c r="V2" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="59" t="s">
+      <c r="W2" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="61" t="s">
+      <c r="X2" s="82" t="s">
         <v>32</v>
       </c>
       <c r="Y2" s="5" t="s">
@@ -3823,45 +3828,45 @@
       <c r="AH2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="51" t="s">
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="51" t="s">
+      <c r="AL2" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="51" t="s">
+      <c r="AM2" s="72" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
+    <row r="3" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="69"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
       <c r="P3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="62"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="83"/>
       <c r="Y3" s="11" t="s">
         <v>41</v>
       </c>
@@ -3876,23 +3881,23 @@
       </c>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
-      <c r="AE3" s="53" t="s">
+      <c r="AE3" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="53" t="s">
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="88"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -3921,7 +3926,7 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="P4" s="50"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
@@ -3932,19 +3937,19 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
-      <c r="AG4" s="19">
+      <c r="AG4" s="18">
         <v>100</v>
       </c>
-      <c r="AH4" s="19">
+      <c r="AH4" s="18">
         <v>60</v>
       </c>
       <c r="AJ4" s="13">
         <v>660</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3974,7 +3979,7 @@
         <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
         <v>46</v>
@@ -3988,11 +3993,11 @@
       <c r="O5" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="51" t="s">
         <v>71</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S5">
         <v>1111</v>
@@ -4012,19 +4017,19 @@
       <c r="X5" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Z5" s="16" t="s">
+      <c r="Z5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AC5" s="19">
+      <c r="AC5" s="18">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4054,7 +4059,7 @@
         <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
         <v>46</v>
@@ -4068,11 +4073,11 @@
       <c r="O6" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="51" t="s">
         <v>71</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S6">
         <v>1111</v>
@@ -4080,10 +4085,10 @@
       <c r="T6">
         <v>2222</v>
       </c>
-      <c r="U6" s="17">
+      <c r="U6" s="16">
         <v>40179</v>
       </c>
-      <c r="V6" s="18" t="s">
+      <c r="V6" s="17" t="s">
         <v>48</v>
       </c>
       <c r="W6">
@@ -4092,19 +4097,19 @@
       <c r="X6" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" s="16" t="s">
+      <c r="Y6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Z6" s="16" t="s">
+      <c r="Z6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AC6" s="19">
+      <c r="AC6" s="18">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
@@ -4113,7 +4118,7 @@
         <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
         <v>46</v>
@@ -4127,25 +4132,25 @@
       <c r="O7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="14">
-        <v>43921</v>
+      <c r="P7" s="51" t="s">
+        <v>50</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>46</v>
@@ -4165,7 +4170,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="P8" s="50"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -4176,43 +4181,21 @@
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
-      <c r="AG8" s="19">
+      <c r="AG8" s="18">
         <v>100</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="AH8" s="18">
         <v>60</v>
       </c>
       <c r="AJ8" s="13">
         <v>660</v>
       </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="P9" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
     <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AE3:AF3"/>
@@ -4224,6 +4207,31 @@
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="AK2:AK3"/>
     <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4232,60 +4240,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A2403E-348C-3E4C-81DE-B01B67512B26}">
-  <dimension ref="A1:AM8"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.83203125" style="19"/>
-    <col min="32" max="34" width="10.83203125" style="19"/>
+    <col min="1" max="1" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.8984375" style="18"/>
+    <col min="32" max="34" width="10.8984375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="53" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="82" t="s">
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="85" t="s">
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86" t="s">
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="86"/>
+      <c r="AB1" s="96"/>
       <c r="AC1" s="2" t="s">
         <v>5</v>
       </c>
@@ -4304,89 +4312,89 @@
       <c r="AH1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AI1" s="63" t="s">
+      <c r="AI1" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AJ1" s="65" t="s">
+      <c r="AJ1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="AK1" s="68" t="s">
+      <c r="AK1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="70"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="91"/>
     </row>
-    <row r="2" spans="1:39" ht="27" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:39" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="K2" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="N2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="89" t="s">
+      <c r="Q2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="93" t="s">
+      <c r="R2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="91" t="s">
+      <c r="S2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="T2" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="U2" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="57" t="s">
+      <c r="V2" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="59" t="s">
+      <c r="W2" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="61" t="s">
+      <c r="X2" s="82" t="s">
         <v>32</v>
       </c>
       <c r="Y2" s="5" t="s">
@@ -4419,45 +4427,45 @@
       <c r="AH2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="51" t="s">
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="51" t="s">
+      <c r="AL2" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="51" t="s">
+      <c r="AM2" s="72" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
+    <row r="3" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="69"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
       <c r="P3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="62"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="83"/>
       <c r="Y3" s="11" t="s">
         <v>41</v>
       </c>
@@ -4472,23 +4480,23 @@
       </c>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
-      <c r="AE3" s="53" t="s">
+      <c r="AE3" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="53" t="s">
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="88"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
@@ -4517,7 +4525,7 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="P4" s="50"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
@@ -4528,19 +4536,19 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
-      <c r="AG4" s="19">
+      <c r="AG4" s="18">
         <v>100</v>
       </c>
-      <c r="AH4" s="19">
+      <c r="AH4" s="18">
         <v>60</v>
       </c>
       <c r="AJ4" s="13">
         <v>660</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4570,7 +4578,7 @@
         <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
         <v>46</v>
@@ -4584,11 +4592,11 @@
       <c r="O5" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="51" t="s">
         <v>71</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S5">
         <v>1111</v>
@@ -4608,19 +4616,19 @@
       <c r="X5" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Z5" s="16" t="s">
+      <c r="Z5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AC5" s="19">
+      <c r="AC5" s="18">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4650,7 +4658,7 @@
         <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
         <v>46</v>
@@ -4664,11 +4672,11 @@
       <c r="O6" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="51" t="s">
         <v>71</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S6">
         <v>1111</v>
@@ -4676,10 +4684,10 @@
       <c r="T6">
         <v>2222</v>
       </c>
-      <c r="U6" s="17">
+      <c r="U6" s="16">
         <v>40179</v>
       </c>
-      <c r="V6" s="18" t="s">
+      <c r="V6" s="17" t="s">
         <v>48</v>
       </c>
       <c r="W6">
@@ -4688,19 +4696,19 @@
       <c r="X6" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" s="16" t="s">
+      <c r="Y6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Z6" s="16" t="s">
+      <c r="Z6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AC6" s="19">
+      <c r="AC6" s="18">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4730,7 +4738,7 @@
         <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
         <v>46</v>
@@ -4744,25 +4752,25 @@
       <c r="O7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="14">
-        <v>43921</v>
+      <c r="P7" s="51" t="s">
+        <v>50</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="13">
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>46</v>
@@ -4782,7 +4790,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="P8" s="50"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -4793,43 +4801,24 @@
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
-      <c r="AG8" s="19">
+      <c r="AG8" s="18">
         <v>100</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="AH8" s="18">
         <v>60</v>
       </c>
       <c r="AJ8" s="13">
         <v>660</v>
       </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="P9" s="52"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="P10" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
     <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AE3:AF3"/>
@@ -4841,6 +4830,31 @@
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="AK2:AK3"/>
     <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
